--- a/Excel/unitConfig.xlsx
+++ b/Excel/unitConfig.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ETOfflineToolkit\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ETOfflineToolkit\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4E3F06-2CC8-4FF1-9BBC-31DD30D1DFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0946F64C-DA74-47CF-9128-558F7C2C458B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,7 +124,7 @@
     <t>描述</t>
   </si>
   <si>
-    <t>勇敢的冒险者</t>
+    <t>Unit</t>
   </si>
 </sst>
 </file>
@@ -520,7 +520,7 @@
   <dimension ref="A1:R137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -661,11 +661,11 @@
       </c>
       <c r="D5" s="5" t="str">
         <f>C5&amp;"_Icon"</f>
-        <v>勇敢的冒险者_Icon</v>
+        <v>Unit_Icon</v>
       </c>
       <c r="E5" s="5" t="str">
         <f>C5&amp;"_HalfIcon"</f>
-        <v>勇敢的冒险者_HalfIcon</v>
+        <v>Unit_HalfIcon</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5"/>
